--- a/src/test/resources/test_data/users.xlsx
+++ b/src/test/resources/test_data/users.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepe/Documents/workspace/4stay-uat/src/test/resources/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13185" windowHeight="5783"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>first_name</t>
   </si>
@@ -73,12 +81,24 @@
   </si>
   <si>
     <t>gglover@maileme101.com</t>
+  </si>
+  <si>
+    <t>mehudojoh@zain.site</t>
+  </si>
+  <si>
+    <t>Mehu</t>
+  </si>
+  <si>
+    <t>Dojoh</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,18 +933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,8 +954,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -957,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -968,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -979,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -988,6 +1011,20 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
